--- a/数值表7.10/数值版本7.10/奖励配置辅助表/在线礼包.xlsx
+++ b/数值表7.10/数值版本7.10/奖励配置辅助表/在线礼包.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="奖励" sheetId="1" r:id="rId1"/>
@@ -3177,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F963"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="D4" s="3" t="str">
         <f>VLOOKUP(A4,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}]</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="D5" s="3" t="str">
         <f>VLOOKUP(A5,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}]</v>
+        <v>[{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}]</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="D6" s="3" t="str">
         <f>VLOOKUP(A6,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}]</v>
+        <v>[{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}]</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="D7" s="3" t="str">
         <f>VLOOKUP(A7,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}]</v>
+        <v>[{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}]</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="D8" s="3" t="str">
         <f>VLOOKUP(A8,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}]</v>
+        <v>[{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}]</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -11077,7 +11077,7 @@
       </c>
       <c r="D4" s="3" t="str">
         <f>VLOOKUP(A4,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}]</v>
+        <v>[{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}]</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -11098,7 +11098,7 @@
       </c>
       <c r="D5" s="3" t="str">
         <f>VLOOKUP(A5,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}]</v>
+        <v>[{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}]</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -11119,7 +11119,7 @@
       </c>
       <c r="D6" s="3" t="str">
         <f>VLOOKUP(A6,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}]</v>
+        <v>[{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}]</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="D7" s="3" t="str">
         <f>VLOOKUP(A7,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}]</v>
+        <v>[{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}]</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="D8" s="3" t="str">
         <f>VLOOKUP(A8,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}]</v>
+        <v>[{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}]</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -19351,7 +19351,7 @@
       </c>
       <c r="D4" s="3" t="str">
         <f>"["&amp;FB4&amp;"]"</f>
-        <v>[{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}]</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -19361,607 +19361,607 @@
       </c>
       <c r="G4" t="str">
         <f>G21</f>
-        <v>{"t":"i","i":35,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0}</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:AM4" si="0">G4&amp;H21</f>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0}</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="R4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="S4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="U4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="V4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="X4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="Z4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AC4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AD4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AE4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AF4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AG4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AH4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AI4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AK4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AL4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AM4" t="str">
         <f t="shared" si="0"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AN4" t="str">
         <f t="shared" ref="AN4:BS4" si="1">AM4&amp;AN21</f>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AO4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AP4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AQ4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AR4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AS4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AT4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AU4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AV4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AW4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AX4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AY4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="AZ4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BA4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BB4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BC4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BD4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BE4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BF4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BG4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BH4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BI4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BJ4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BK4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BL4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BM4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BN4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BO4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BP4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BQ4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BR4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BS4" t="str">
         <f t="shared" si="1"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BT4" t="str">
         <f t="shared" ref="BT4:CY4" si="2">BS4&amp;BT21</f>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BU4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BV4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BW4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BX4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BY4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="BZ4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CA4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CB4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CC4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CD4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CE4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CF4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CG4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CH4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CI4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CJ4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CK4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CL4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CM4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CN4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CO4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CP4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CQ4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CR4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CS4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CT4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CU4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CV4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CW4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CX4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CY4" t="str">
         <f t="shared" si="2"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="CZ4" t="str">
         <f t="shared" ref="CZ4:EE4" si="3">CY4&amp;CZ21</f>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DA4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DB4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DC4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DD4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DE4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DF4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DG4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DH4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DI4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DJ4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DK4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DL4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DM4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DN4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DO4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DP4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DQ4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DR4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DS4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DT4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DU4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DV4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DW4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DX4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DY4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="DZ4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EA4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EB4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EC4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="ED4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EE4" t="str">
         <f t="shared" si="3"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EF4" t="str">
         <f t="shared" ref="EF4:EZ4" si="4">EE4&amp;EF21</f>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EG4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EH4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EI4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EJ4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EK4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EL4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EM4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EN4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EO4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EP4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EQ4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="ER4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="ES4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="ET4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EU4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EV4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EW4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EX4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EY4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="EZ4" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
       <c r="FB4" t="str">
         <f>EZ4</f>
-        <v>{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}</v>
       </c>
     </row>
     <row r="5" spans="1:158" x14ac:dyDescent="0.15">
@@ -19976,7 +19976,7 @@
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" ref="D5:D8" si="5">"["&amp;FB5&amp;"]"</f>
-        <v>[{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}]</v>
+        <v>[{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}]</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -19986,607 +19986,607 @@
       </c>
       <c r="G5" t="str">
         <f>G22</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0}</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ref="H5:AM5" si="6">G5&amp;H22</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0}</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="R5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="S5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="Z5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AC5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AD5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AE5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AF5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AG5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AH5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AI5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AJ5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AK5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AL5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AM5" t="str">
         <f t="shared" si="6"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AN5" t="str">
         <f t="shared" ref="AN5:BS5" si="7">AM5&amp;AN22</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AO5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AP5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AQ5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AR5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AS5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AT5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AU5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AV5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AW5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AX5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AY5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="AZ5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BA5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BB5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BC5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BD5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BE5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BF5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BG5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BH5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BI5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BJ5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BK5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BL5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BM5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BN5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BO5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BP5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BQ5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BR5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BS5" t="str">
         <f t="shared" si="7"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BT5" t="str">
         <f t="shared" ref="BT5:CY5" si="8">BS5&amp;BT22</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BU5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BV5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BW5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BX5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BY5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="BZ5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CA5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CB5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CC5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CD5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CE5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CF5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CG5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CH5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CI5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CJ5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CK5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CL5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CM5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CN5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CO5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CP5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CQ5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CR5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CS5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CT5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CU5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CV5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CW5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CX5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CY5" t="str">
         <f t="shared" si="8"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="CZ5" t="str">
         <f t="shared" ref="CZ5:EE5" si="9">CY5&amp;CZ22</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DA5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DB5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DC5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DD5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DE5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DF5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DG5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DH5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DI5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DJ5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DK5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DL5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DM5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DN5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DO5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DP5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DQ5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DR5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DS5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DT5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DU5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DV5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DW5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DX5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DY5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="DZ5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EA5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EB5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EC5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="ED5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EE5" t="str">
         <f t="shared" si="9"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EF5" t="str">
         <f t="shared" ref="EF5:EZ5" si="10">EE5&amp;EF22</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EG5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EH5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EI5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EJ5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EK5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EL5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EM5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EN5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EO5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EP5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EQ5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="ER5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="ES5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="ET5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EU5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EV5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EW5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EX5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EY5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="EZ5" t="str">
         <f t="shared" si="10"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
       <c r="FB5" t="str">
         <f t="shared" ref="FB5:FB8" si="11">EZ5</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}</v>
       </c>
     </row>
     <row r="6" spans="1:158" x14ac:dyDescent="0.15">
@@ -20601,7 +20601,7 @@
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>[{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}]</v>
+        <v>[{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}]</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -20611,607 +20611,607 @@
       </c>
       <c r="G6" t="str">
         <f>G23</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0}</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" ref="H6:AM6" si="12">G6&amp;H23</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0}</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0}</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="R6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="Z6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AC6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AD6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AE6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AF6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AG6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AH6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AI6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AJ6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AK6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AL6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AM6" t="str">
         <f t="shared" si="12"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AN6" t="str">
         <f t="shared" ref="AN6:BS6" si="13">AM6&amp;AN23</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AO6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AP6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AQ6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AR6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AT6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AU6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AV6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AW6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AX6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AY6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AZ6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BA6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BB6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BC6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BD6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BE6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BF6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BG6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BH6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BI6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BJ6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BK6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BL6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BM6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BN6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BO6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BP6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BQ6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BR6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BS6" t="str">
         <f t="shared" si="13"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BT6" t="str">
         <f t="shared" ref="BT6:CY6" si="14">BS6&amp;BT23</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BU6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BV6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BW6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BX6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BY6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BZ6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CA6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CB6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CC6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CD6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CE6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CF6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CG6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CH6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CI6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CJ6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CK6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CL6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CM6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CN6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CO6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CP6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CQ6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CR6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CS6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CT6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CU6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CV6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CW6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CX6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CY6" t="str">
         <f t="shared" si="14"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CZ6" t="str">
         <f t="shared" ref="CZ6:EE6" si="15">CY6&amp;CZ23</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DA6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DB6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DC6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DD6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DE6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DF6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DG6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DH6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DI6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DJ6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DK6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DL6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DM6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DN6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DO6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DP6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DQ6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DR6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DS6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DT6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DU6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DV6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DW6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DX6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DY6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DZ6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EA6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EB6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EC6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="ED6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EE6" t="str">
         <f t="shared" si="15"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EF6" t="str">
         <f t="shared" ref="EF6:EZ6" si="16">EE6&amp;EF23</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EG6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EH6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EI6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EJ6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EK6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EL6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EM6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EN6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EO6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EP6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EQ6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="ER6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="ES6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="ET6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EU6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EV6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EW6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EX6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EY6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EZ6" t="str">
         <f t="shared" si="16"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="FB6" t="str">
         <f t="shared" si="11"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
     </row>
     <row r="7" spans="1:158" x14ac:dyDescent="0.15">
@@ -21226,7 +21226,7 @@
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>[{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}]</v>
+        <v>[{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}]</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -21236,607 +21236,607 @@
       </c>
       <c r="G7" t="str">
         <f>G24</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0}</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" ref="H7:AM7" si="17">G7&amp;H24</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0}</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0}</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="R7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="Z7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AD7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AE7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AF7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AG7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AH7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AI7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AJ7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AK7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AL7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AM7" t="str">
         <f t="shared" si="17"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AN7" t="str">
         <f t="shared" ref="AN7:BS7" si="18">AM7&amp;AN24</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AO7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AP7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AQ7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AR7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AT7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AU7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AV7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AW7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AX7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AY7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="AZ7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BA7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BB7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BC7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BD7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BE7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BF7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BG7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BH7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BI7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BJ7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BK7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BL7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BM7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BN7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BO7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BP7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BQ7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BR7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BS7" t="str">
         <f t="shared" si="18"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BT7" t="str">
         <f t="shared" ref="BT7:CY7" si="19">BS7&amp;BT24</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BU7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BV7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BW7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BX7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BY7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="BZ7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CA7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CB7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CC7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CD7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CE7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CF7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CG7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CH7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CI7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CJ7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CK7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CL7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CM7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CN7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CO7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CP7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CQ7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CR7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CS7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CT7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CU7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CV7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CW7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CX7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CY7" t="str">
         <f t="shared" si="19"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="CZ7" t="str">
         <f t="shared" ref="CZ7:EE7" si="20">CY7&amp;CZ24</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DA7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DB7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DC7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DD7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DE7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DF7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DG7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DH7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DI7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DJ7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DK7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DL7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DM7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DN7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DO7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DP7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DQ7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DR7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DS7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DT7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DU7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DV7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DW7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DX7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DY7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="DZ7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EA7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EB7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EC7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="ED7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EE7" t="str">
         <f t="shared" si="20"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EF7" t="str">
         <f t="shared" ref="EF7:EZ7" si="21">EE7&amp;EF24</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EG7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EH7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EI7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EJ7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EK7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EL7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EM7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EN7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EO7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EP7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EQ7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="ER7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="ES7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="ET7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EU7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EV7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EW7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EX7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EY7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="EZ7" t="str">
         <f t="shared" si="21"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
       <c r="FB7" t="str">
         <f t="shared" si="11"/>
-        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}</v>
       </c>
     </row>
     <row r="8" spans="1:158" x14ac:dyDescent="0.15">
@@ -21851,7 +21851,7 @@
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>[{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}]</v>
+        <v>[{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}]</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -21865,603 +21865,603 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" ref="H8:AM8" si="22">G8&amp;H25</f>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0}</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0}</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0}</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AC8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AD8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AE8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AF8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AG8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AH8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AI8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AJ8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AK8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AL8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AM8" t="str">
         <f t="shared" si="22"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AN8" t="str">
         <f t="shared" ref="AN8:BS8" si="23">AM8&amp;AN25</f>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AO8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AP8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AQ8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AR8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AT8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AU8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AV8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AW8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AX8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AY8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AZ8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BA8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BB8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BC8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BD8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BE8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BF8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BG8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BH8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BI8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BJ8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BK8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BL8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BM8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BN8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BO8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BP8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BQ8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BR8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BS8" t="str">
         <f t="shared" si="23"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BT8" t="str">
         <f t="shared" ref="BT8:CY8" si="24">BS8&amp;BT25</f>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BU8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BV8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BW8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BX8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BY8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BZ8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CA8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CB8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CC8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CD8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CE8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CF8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CG8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CH8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CI8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CJ8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CK8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CL8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CM8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CN8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CO8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CP8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CQ8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CR8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CS8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CT8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CU8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CV8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CW8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CX8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CY8" t="str">
         <f t="shared" si="24"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CZ8" t="str">
         <f t="shared" ref="CZ8:EE8" si="25">CY8&amp;CZ25</f>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DA8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DB8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DC8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DD8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DE8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DF8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DG8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DH8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DI8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DJ8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DK8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DL8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DM8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DN8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DO8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DP8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DQ8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DR8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DS8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DT8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DU8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DV8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DW8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DX8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DY8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DZ8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EA8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EB8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EC8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="ED8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EE8" t="str">
         <f t="shared" si="25"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EF8" t="str">
         <f t="shared" ref="EF8:EZ8" si="26">EE8&amp;EF25</f>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EG8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EH8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EI8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EJ8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EK8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EL8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EM8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EN8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EO8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EP8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EQ8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="ER8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="ES8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="ET8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EU8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EV8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EW8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EX8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EY8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EZ8" t="str">
         <f t="shared" si="26"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="FB8" t="str">
         <f t="shared" si="11"/>
-        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
     </row>
     <row r="9" spans="1:158" x14ac:dyDescent="0.15">
@@ -22499,7 +22499,7 @@
       </c>
       <c r="D12" s="3" t="str">
         <f>"["&amp;FB12&amp;"]"</f>
-        <v>[{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}]</v>
+        <v>[{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}]</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -22509,607 +22509,607 @@
       </c>
       <c r="G12" t="str">
         <f>G29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0}</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" ref="H12" si="27">G12&amp;H29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0}</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" ref="I12" si="28">H12&amp;I29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" ref="J12" si="29">I12&amp;J29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" ref="K12" si="30">J12&amp;K29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" ref="L12" si="31">K12&amp;L29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" ref="M12" si="32">L12&amp;M29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" ref="N12" si="33">M12&amp;N29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" ref="O12" si="34">N12&amp;O29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" ref="P12" si="35">O12&amp;P29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" ref="Q12" si="36">P12&amp;Q29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" ref="R12" si="37">Q12&amp;R29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" ref="S12" si="38">R12&amp;S29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" ref="T12" si="39">S12&amp;T29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" ref="U12" si="40">T12&amp;U29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" ref="V12" si="41">U12&amp;V29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" ref="W12" si="42">V12&amp;W29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" ref="X12" si="43">W12&amp;X29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" ref="Y12" si="44">X12&amp;Y29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="Z12" t="str">
         <f t="shared" ref="Z12" si="45">Y12&amp;Z29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" ref="AA12" si="46">Z12&amp;AA29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" ref="AB12" si="47">AA12&amp;AB29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AC12" t="str">
         <f t="shared" ref="AC12" si="48">AB12&amp;AC29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AD12" t="str">
         <f t="shared" ref="AD12" si="49">AC12&amp;AD29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AE12" t="str">
         <f t="shared" ref="AE12" si="50">AD12&amp;AE29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AF12" t="str">
         <f t="shared" ref="AF12" si="51">AE12&amp;AF29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AG12" t="str">
         <f t="shared" ref="AG12" si="52">AF12&amp;AG29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AH12" t="str">
         <f t="shared" ref="AH12" si="53">AG12&amp;AH29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AI12" t="str">
         <f t="shared" ref="AI12" si="54">AH12&amp;AI29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AJ12" t="str">
         <f t="shared" ref="AJ12" si="55">AI12&amp;AJ29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AK12" t="str">
         <f t="shared" ref="AK12" si="56">AJ12&amp;AK29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AL12" t="str">
         <f t="shared" ref="AL12" si="57">AK12&amp;AL29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AM12" t="str">
         <f t="shared" ref="AM12" si="58">AL12&amp;AM29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AN12" t="str">
         <f t="shared" ref="AN12" si="59">AM12&amp;AN29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AO12" t="str">
         <f t="shared" ref="AO12" si="60">AN12&amp;AO29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AP12" t="str">
         <f t="shared" ref="AP12" si="61">AO12&amp;AP29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AQ12" t="str">
         <f t="shared" ref="AQ12" si="62">AP12&amp;AQ29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AR12" t="str">
         <f t="shared" ref="AR12" si="63">AQ12&amp;AR29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AS12" t="str">
         <f t="shared" ref="AS12" si="64">AR12&amp;AS29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AT12" t="str">
         <f t="shared" ref="AT12" si="65">AS12&amp;AT29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AU12" t="str">
         <f t="shared" ref="AU12" si="66">AT12&amp;AU29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AV12" t="str">
         <f t="shared" ref="AV12" si="67">AU12&amp;AV29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AW12" t="str">
         <f t="shared" ref="AW12" si="68">AV12&amp;AW29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AX12" t="str">
         <f t="shared" ref="AX12" si="69">AW12&amp;AX29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AY12" t="str">
         <f t="shared" ref="AY12" si="70">AX12&amp;AY29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="AZ12" t="str">
         <f t="shared" ref="AZ12" si="71">AY12&amp;AZ29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BA12" t="str">
         <f t="shared" ref="BA12" si="72">AZ12&amp;BA29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BB12" t="str">
         <f t="shared" ref="BB12" si="73">BA12&amp;BB29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BC12" t="str">
         <f t="shared" ref="BC12" si="74">BB12&amp;BC29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BD12" t="str">
         <f t="shared" ref="BD12" si="75">BC12&amp;BD29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BE12" t="str">
         <f t="shared" ref="BE12" si="76">BD12&amp;BE29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BF12" t="str">
         <f t="shared" ref="BF12" si="77">BE12&amp;BF29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BG12" t="str">
         <f t="shared" ref="BG12" si="78">BF12&amp;BG29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BH12" t="str">
         <f t="shared" ref="BH12" si="79">BG12&amp;BH29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BI12" t="str">
         <f t="shared" ref="BI12" si="80">BH12&amp;BI29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BJ12" t="str">
         <f t="shared" ref="BJ12" si="81">BI12&amp;BJ29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BK12" t="str">
         <f t="shared" ref="BK12" si="82">BJ12&amp;BK29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BL12" t="str">
         <f t="shared" ref="BL12" si="83">BK12&amp;BL29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BM12" t="str">
         <f t="shared" ref="BM12" si="84">BL12&amp;BM29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BN12" t="str">
         <f t="shared" ref="BN12" si="85">BM12&amp;BN29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BO12" t="str">
         <f t="shared" ref="BO12" si="86">BN12&amp;BO29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BP12" t="str">
         <f t="shared" ref="BP12" si="87">BO12&amp;BP29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BQ12" t="str">
         <f t="shared" ref="BQ12" si="88">BP12&amp;BQ29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BR12" t="str">
         <f t="shared" ref="BR12" si="89">BQ12&amp;BR29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BS12" t="str">
         <f t="shared" ref="BS12" si="90">BR12&amp;BS29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BT12" t="str">
         <f t="shared" ref="BT12" si="91">BS12&amp;BT29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BU12" t="str">
         <f t="shared" ref="BU12" si="92">BT12&amp;BU29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BV12" t="str">
         <f t="shared" ref="BV12" si="93">BU12&amp;BV29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BW12" t="str">
         <f t="shared" ref="BW12" si="94">BV12&amp;BW29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BX12" t="str">
         <f t="shared" ref="BX12" si="95">BW12&amp;BX29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BY12" t="str">
         <f t="shared" ref="BY12" si="96">BX12&amp;BY29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="BZ12" t="str">
         <f t="shared" ref="BZ12" si="97">BY12&amp;BZ29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CA12" t="str">
         <f t="shared" ref="CA12" si="98">BZ12&amp;CA29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CB12" t="str">
         <f t="shared" ref="CB12" si="99">CA12&amp;CB29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CC12" t="str">
         <f t="shared" ref="CC12" si="100">CB12&amp;CC29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CD12" t="str">
         <f t="shared" ref="CD12" si="101">CC12&amp;CD29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CE12" t="str">
         <f t="shared" ref="CE12" si="102">CD12&amp;CE29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CF12" t="str">
         <f t="shared" ref="CF12" si="103">CE12&amp;CF29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CG12" t="str">
         <f t="shared" ref="CG12" si="104">CF12&amp;CG29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CH12" t="str">
         <f t="shared" ref="CH12" si="105">CG12&amp;CH29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CI12" t="str">
         <f t="shared" ref="CI12" si="106">CH12&amp;CI29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CJ12" t="str">
         <f t="shared" ref="CJ12" si="107">CI12&amp;CJ29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CK12" t="str">
         <f t="shared" ref="CK12" si="108">CJ12&amp;CK29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CL12" t="str">
         <f t="shared" ref="CL12" si="109">CK12&amp;CL29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CM12" t="str">
         <f t="shared" ref="CM12" si="110">CL12&amp;CM29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CN12" t="str">
         <f t="shared" ref="CN12" si="111">CM12&amp;CN29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CO12" t="str">
         <f t="shared" ref="CO12" si="112">CN12&amp;CO29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CP12" t="str">
         <f t="shared" ref="CP12" si="113">CO12&amp;CP29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CQ12" t="str">
         <f t="shared" ref="CQ12" si="114">CP12&amp;CQ29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CR12" t="str">
         <f t="shared" ref="CR12" si="115">CQ12&amp;CR29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CS12" t="str">
         <f t="shared" ref="CS12" si="116">CR12&amp;CS29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CT12" t="str">
         <f t="shared" ref="CT12" si="117">CS12&amp;CT29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CU12" t="str">
         <f t="shared" ref="CU12" si="118">CT12&amp;CU29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CV12" t="str">
         <f t="shared" ref="CV12" si="119">CU12&amp;CV29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CW12" t="str">
         <f t="shared" ref="CW12" si="120">CV12&amp;CW29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CX12" t="str">
         <f t="shared" ref="CX12" si="121">CW12&amp;CX29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CY12" t="str">
         <f t="shared" ref="CY12" si="122">CX12&amp;CY29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="CZ12" t="str">
         <f t="shared" ref="CZ12" si="123">CY12&amp;CZ29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DA12" t="str">
         <f t="shared" ref="DA12" si="124">CZ12&amp;DA29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DB12" t="str">
         <f t="shared" ref="DB12" si="125">DA12&amp;DB29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DC12" t="str">
         <f t="shared" ref="DC12" si="126">DB12&amp;DC29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DD12" t="str">
         <f t="shared" ref="DD12" si="127">DC12&amp;DD29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DE12" t="str">
         <f t="shared" ref="DE12" si="128">DD12&amp;DE29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DF12" t="str">
         <f t="shared" ref="DF12" si="129">DE12&amp;DF29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DG12" t="str">
         <f t="shared" ref="DG12" si="130">DF12&amp;DG29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DH12" t="str">
         <f t="shared" ref="DH12" si="131">DG12&amp;DH29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DI12" t="str">
         <f t="shared" ref="DI12:EZ12" si="132">DH12&amp;DI29</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DJ12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DK12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DL12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DM12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DN12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DO12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DP12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DQ12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DR12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DS12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DT12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DU12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DV12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DW12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DX12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DY12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="DZ12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EA12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EB12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EC12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="ED12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EE12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EF12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EG12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EH12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EI12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EJ12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EK12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EL12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EM12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EN12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EO12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EP12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EQ12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="ER12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="ES12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="ET12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EU12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EV12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EW12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EX12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EY12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="EZ12" t="str">
         <f t="shared" si="132"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
       <c r="FB12" t="str">
         <f>EZ12</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}</v>
       </c>
     </row>
     <row r="13" spans="1:158" x14ac:dyDescent="0.15">
@@ -23124,7 +23124,7 @@
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" ref="D13:D16" si="133">"["&amp;FB13&amp;"]"</f>
-        <v>[{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}]</v>
+        <v>[{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}]</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -23134,607 +23134,607 @@
       </c>
       <c r="G13" t="str">
         <f>G30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0}</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" ref="H13" si="134">G13&amp;H30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0}</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" ref="I13" si="135">H13&amp;I30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" ref="J13" si="136">I13&amp;J30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" ref="K13" si="137">J13&amp;K30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" ref="L13" si="138">K13&amp;L30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" ref="M13" si="139">L13&amp;M30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" ref="N13" si="140">M13&amp;N30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" ref="O13" si="141">N13&amp;O30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" ref="P13" si="142">O13&amp;P30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" ref="Q13" si="143">P13&amp;Q30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" ref="R13" si="144">Q13&amp;R30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" ref="S13" si="145">R13&amp;S30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" ref="T13" si="146">S13&amp;T30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" ref="U13" si="147">T13&amp;U30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" ref="V13" si="148">U13&amp;V30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" ref="W13" si="149">V13&amp;W30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" ref="X13" si="150">W13&amp;X30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" ref="Y13" si="151">X13&amp;Y30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="Z13" t="str">
         <f t="shared" ref="Z13" si="152">Y13&amp;Z30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" ref="AA13" si="153">Z13&amp;AA30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" ref="AB13" si="154">AA13&amp;AB30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" ref="AC13" si="155">AB13&amp;AC30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AD13" t="str">
         <f t="shared" ref="AD13" si="156">AC13&amp;AD30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AE13" t="str">
         <f t="shared" ref="AE13" si="157">AD13&amp;AE30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AF13" t="str">
         <f t="shared" ref="AF13" si="158">AE13&amp;AF30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AG13" t="str">
         <f t="shared" ref="AG13" si="159">AF13&amp;AG30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AH13" t="str">
         <f t="shared" ref="AH13" si="160">AG13&amp;AH30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AI13" t="str">
         <f t="shared" ref="AI13" si="161">AH13&amp;AI30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AJ13" t="str">
         <f t="shared" ref="AJ13" si="162">AI13&amp;AJ30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AK13" t="str">
         <f t="shared" ref="AK13" si="163">AJ13&amp;AK30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AL13" t="str">
         <f t="shared" ref="AL13" si="164">AK13&amp;AL30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AM13" t="str">
         <f t="shared" ref="AM13" si="165">AL13&amp;AM30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AN13" t="str">
         <f t="shared" ref="AN13" si="166">AM13&amp;AN30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AO13" t="str">
         <f t="shared" ref="AO13" si="167">AN13&amp;AO30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AP13" t="str">
         <f t="shared" ref="AP13" si="168">AO13&amp;AP30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AQ13" t="str">
         <f t="shared" ref="AQ13" si="169">AP13&amp;AQ30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AR13" t="str">
         <f t="shared" ref="AR13" si="170">AQ13&amp;AR30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AS13" t="str">
         <f t="shared" ref="AS13" si="171">AR13&amp;AS30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AT13" t="str">
         <f t="shared" ref="AT13" si="172">AS13&amp;AT30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AU13" t="str">
         <f t="shared" ref="AU13" si="173">AT13&amp;AU30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AV13" t="str">
         <f t="shared" ref="AV13" si="174">AU13&amp;AV30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AW13" t="str">
         <f t="shared" ref="AW13" si="175">AV13&amp;AW30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AX13" t="str">
         <f t="shared" ref="AX13" si="176">AW13&amp;AX30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AY13" t="str">
         <f t="shared" ref="AY13" si="177">AX13&amp;AY30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="AZ13" t="str">
         <f t="shared" ref="AZ13" si="178">AY13&amp;AZ30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BA13" t="str">
         <f t="shared" ref="BA13" si="179">AZ13&amp;BA30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BB13" t="str">
         <f t="shared" ref="BB13" si="180">BA13&amp;BB30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BC13" t="str">
         <f t="shared" ref="BC13" si="181">BB13&amp;BC30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BD13" t="str">
         <f t="shared" ref="BD13" si="182">BC13&amp;BD30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BE13" t="str">
         <f t="shared" ref="BE13" si="183">BD13&amp;BE30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BF13" t="str">
         <f t="shared" ref="BF13" si="184">BE13&amp;BF30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BG13" t="str">
         <f t="shared" ref="BG13" si="185">BF13&amp;BG30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BH13" t="str">
         <f t="shared" ref="BH13" si="186">BG13&amp;BH30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BI13" t="str">
         <f t="shared" ref="BI13" si="187">BH13&amp;BI30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BJ13" t="str">
         <f t="shared" ref="BJ13" si="188">BI13&amp;BJ30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BK13" t="str">
         <f t="shared" ref="BK13" si="189">BJ13&amp;BK30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BL13" t="str">
         <f t="shared" ref="BL13" si="190">BK13&amp;BL30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BM13" t="str">
         <f t="shared" ref="BM13" si="191">BL13&amp;BM30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BN13" t="str">
         <f t="shared" ref="BN13" si="192">BM13&amp;BN30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BO13" t="str">
         <f t="shared" ref="BO13" si="193">BN13&amp;BO30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BP13" t="str">
         <f t="shared" ref="BP13" si="194">BO13&amp;BP30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BQ13" t="str">
         <f t="shared" ref="BQ13" si="195">BP13&amp;BQ30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BR13" t="str">
         <f t="shared" ref="BR13" si="196">BQ13&amp;BR30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BS13" t="str">
         <f t="shared" ref="BS13" si="197">BR13&amp;BS30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BT13" t="str">
         <f t="shared" ref="BT13" si="198">BS13&amp;BT30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BU13" t="str">
         <f t="shared" ref="BU13" si="199">BT13&amp;BU30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BV13" t="str">
         <f t="shared" ref="BV13" si="200">BU13&amp;BV30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BW13" t="str">
         <f t="shared" ref="BW13" si="201">BV13&amp;BW30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BX13" t="str">
         <f t="shared" ref="BX13" si="202">BW13&amp;BX30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BY13" t="str">
         <f t="shared" ref="BY13" si="203">BX13&amp;BY30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="BZ13" t="str">
         <f t="shared" ref="BZ13" si="204">BY13&amp;BZ30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CA13" t="str">
         <f t="shared" ref="CA13" si="205">BZ13&amp;CA30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CB13" t="str">
         <f t="shared" ref="CB13" si="206">CA13&amp;CB30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CC13" t="str">
         <f t="shared" ref="CC13" si="207">CB13&amp;CC30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CD13" t="str">
         <f t="shared" ref="CD13" si="208">CC13&amp;CD30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CE13" t="str">
         <f t="shared" ref="CE13" si="209">CD13&amp;CE30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CF13" t="str">
         <f t="shared" ref="CF13" si="210">CE13&amp;CF30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CG13" t="str">
         <f t="shared" ref="CG13" si="211">CF13&amp;CG30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CH13" t="str">
         <f t="shared" ref="CH13" si="212">CG13&amp;CH30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CI13" t="str">
         <f t="shared" ref="CI13" si="213">CH13&amp;CI30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CJ13" t="str">
         <f t="shared" ref="CJ13" si="214">CI13&amp;CJ30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CK13" t="str">
         <f t="shared" ref="CK13" si="215">CJ13&amp;CK30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CL13" t="str">
         <f t="shared" ref="CL13" si="216">CK13&amp;CL30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CM13" t="str">
         <f t="shared" ref="CM13" si="217">CL13&amp;CM30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CN13" t="str">
         <f t="shared" ref="CN13" si="218">CM13&amp;CN30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CO13" t="str">
         <f t="shared" ref="CO13" si="219">CN13&amp;CO30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CP13" t="str">
         <f t="shared" ref="CP13" si="220">CO13&amp;CP30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CQ13" t="str">
         <f t="shared" ref="CQ13" si="221">CP13&amp;CQ30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CR13" t="str">
         <f t="shared" ref="CR13" si="222">CQ13&amp;CR30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CS13" t="str">
         <f t="shared" ref="CS13" si="223">CR13&amp;CS30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CT13" t="str">
         <f t="shared" ref="CT13" si="224">CS13&amp;CT30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CU13" t="str">
         <f t="shared" ref="CU13" si="225">CT13&amp;CU30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CV13" t="str">
         <f t="shared" ref="CV13" si="226">CU13&amp;CV30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CW13" t="str">
         <f t="shared" ref="CW13" si="227">CV13&amp;CW30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CX13" t="str">
         <f t="shared" ref="CX13" si="228">CW13&amp;CX30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CY13" t="str">
         <f t="shared" ref="CY13" si="229">CX13&amp;CY30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="CZ13" t="str">
         <f t="shared" ref="CZ13" si="230">CY13&amp;CZ30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DA13" t="str">
         <f t="shared" ref="DA13" si="231">CZ13&amp;DA30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DB13" t="str">
         <f t="shared" ref="DB13" si="232">DA13&amp;DB30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DC13" t="str">
         <f t="shared" ref="DC13" si="233">DB13&amp;DC30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DD13" t="str">
         <f t="shared" ref="DD13" si="234">DC13&amp;DD30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DE13" t="str">
         <f t="shared" ref="DE13" si="235">DD13&amp;DE30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DF13" t="str">
         <f t="shared" ref="DF13" si="236">DE13&amp;DF30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DG13" t="str">
         <f t="shared" ref="DG13" si="237">DF13&amp;DG30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DH13" t="str">
         <f t="shared" ref="DH13" si="238">DG13&amp;DH30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DI13" t="str">
         <f t="shared" ref="DI13:EZ13" si="239">DH13&amp;DI30</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DJ13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DK13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DL13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DM13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DN13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DO13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DP13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DQ13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DR13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DS13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DT13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DU13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DV13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DW13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DX13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DY13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="DZ13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EA13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EB13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EC13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="ED13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EE13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EF13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EG13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EH13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EI13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EJ13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EK13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EL13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EM13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EN13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EO13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EP13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EQ13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="ER13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="ES13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="ET13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EU13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EV13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EW13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EX13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EY13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="EZ13" t="str">
         <f t="shared" si="239"/>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
       <c r="FB13" t="str">
         <f t="shared" ref="FB13:FB16" si="240">EZ13</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}</v>
       </c>
     </row>
     <row r="14" spans="1:158" x14ac:dyDescent="0.15">
@@ -23749,7 +23749,7 @@
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="133"/>
-        <v>[{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}]</v>
+        <v>[{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}]</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -23759,607 +23759,607 @@
       </c>
       <c r="G14" t="str">
         <f>G31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0}</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ref="H14" si="241">G14&amp;H31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0}</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" ref="I14" si="242">H14&amp;I31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0}</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" ref="J14" si="243">I14&amp;J31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" ref="K14" si="244">J14&amp;K31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" ref="L14" si="245">K14&amp;L31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" ref="M14" si="246">L14&amp;M31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" ref="N14" si="247">M14&amp;N31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" ref="O14" si="248">N14&amp;O31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" ref="P14" si="249">O14&amp;P31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" ref="Q14" si="250">P14&amp;Q31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="R14" t="str">
         <f t="shared" ref="R14" si="251">Q14&amp;R31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" ref="S14" si="252">R14&amp;S31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" ref="T14" si="253">S14&amp;T31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" ref="U14" si="254">T14&amp;U31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" ref="V14" si="255">U14&amp;V31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" ref="W14" si="256">V14&amp;W31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" ref="X14" si="257">W14&amp;X31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" ref="Y14" si="258">X14&amp;Y31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" ref="Z14" si="259">Y14&amp;Z31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AA14" t="str">
         <f t="shared" ref="AA14" si="260">Z14&amp;AA31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" ref="AB14" si="261">AA14&amp;AB31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" ref="AC14" si="262">AB14&amp;AC31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AD14" t="str">
         <f t="shared" ref="AD14" si="263">AC14&amp;AD31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AE14" t="str">
         <f t="shared" ref="AE14" si="264">AD14&amp;AE31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AF14" t="str">
         <f t="shared" ref="AF14" si="265">AE14&amp;AF31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AG14" t="str">
         <f t="shared" ref="AG14" si="266">AF14&amp;AG31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AH14" t="str">
         <f t="shared" ref="AH14" si="267">AG14&amp;AH31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AI14" t="str">
         <f t="shared" ref="AI14" si="268">AH14&amp;AI31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AJ14" t="str">
         <f t="shared" ref="AJ14" si="269">AI14&amp;AJ31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AK14" t="str">
         <f t="shared" ref="AK14" si="270">AJ14&amp;AK31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AL14" t="str">
         <f t="shared" ref="AL14" si="271">AK14&amp;AL31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AM14" t="str">
         <f t="shared" ref="AM14" si="272">AL14&amp;AM31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AN14" t="str">
         <f t="shared" ref="AN14" si="273">AM14&amp;AN31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AO14" t="str">
         <f t="shared" ref="AO14" si="274">AN14&amp;AO31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AP14" t="str">
         <f t="shared" ref="AP14" si="275">AO14&amp;AP31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AQ14" t="str">
         <f t="shared" ref="AQ14" si="276">AP14&amp;AQ31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AR14" t="str">
         <f t="shared" ref="AR14" si="277">AQ14&amp;AR31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AS14" t="str">
         <f t="shared" ref="AS14" si="278">AR14&amp;AS31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AT14" t="str">
         <f t="shared" ref="AT14" si="279">AS14&amp;AT31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AU14" t="str">
         <f t="shared" ref="AU14" si="280">AT14&amp;AU31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AV14" t="str">
         <f t="shared" ref="AV14" si="281">AU14&amp;AV31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AW14" t="str">
         <f t="shared" ref="AW14" si="282">AV14&amp;AW31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AX14" t="str">
         <f t="shared" ref="AX14" si="283">AW14&amp;AX31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AY14" t="str">
         <f t="shared" ref="AY14" si="284">AX14&amp;AY31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="AZ14" t="str">
         <f t="shared" ref="AZ14" si="285">AY14&amp;AZ31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BA14" t="str">
         <f t="shared" ref="BA14" si="286">AZ14&amp;BA31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BB14" t="str">
         <f t="shared" ref="BB14" si="287">BA14&amp;BB31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BC14" t="str">
         <f t="shared" ref="BC14" si="288">BB14&amp;BC31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BD14" t="str">
         <f t="shared" ref="BD14" si="289">BC14&amp;BD31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BE14" t="str">
         <f t="shared" ref="BE14" si="290">BD14&amp;BE31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BF14" t="str">
         <f t="shared" ref="BF14" si="291">BE14&amp;BF31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BG14" t="str">
         <f t="shared" ref="BG14" si="292">BF14&amp;BG31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BH14" t="str">
         <f t="shared" ref="BH14" si="293">BG14&amp;BH31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BI14" t="str">
         <f t="shared" ref="BI14" si="294">BH14&amp;BI31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BJ14" t="str">
         <f t="shared" ref="BJ14" si="295">BI14&amp;BJ31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BK14" t="str">
         <f t="shared" ref="BK14" si="296">BJ14&amp;BK31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BL14" t="str">
         <f t="shared" ref="BL14" si="297">BK14&amp;BL31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BM14" t="str">
         <f t="shared" ref="BM14" si="298">BL14&amp;BM31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BN14" t="str">
         <f t="shared" ref="BN14" si="299">BM14&amp;BN31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BO14" t="str">
         <f t="shared" ref="BO14" si="300">BN14&amp;BO31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BP14" t="str">
         <f t="shared" ref="BP14" si="301">BO14&amp;BP31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BQ14" t="str">
         <f t="shared" ref="BQ14" si="302">BP14&amp;BQ31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BR14" t="str">
         <f t="shared" ref="BR14" si="303">BQ14&amp;BR31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BS14" t="str">
         <f t="shared" ref="BS14" si="304">BR14&amp;BS31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BT14" t="str">
         <f t="shared" ref="BT14" si="305">BS14&amp;BT31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BU14" t="str">
         <f t="shared" ref="BU14" si="306">BT14&amp;BU31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BV14" t="str">
         <f t="shared" ref="BV14" si="307">BU14&amp;BV31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BW14" t="str">
         <f t="shared" ref="BW14" si="308">BV14&amp;BW31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BX14" t="str">
         <f t="shared" ref="BX14" si="309">BW14&amp;BX31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BY14" t="str">
         <f t="shared" ref="BY14" si="310">BX14&amp;BY31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="BZ14" t="str">
         <f t="shared" ref="BZ14" si="311">BY14&amp;BZ31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CA14" t="str">
         <f t="shared" ref="CA14" si="312">BZ14&amp;CA31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CB14" t="str">
         <f t="shared" ref="CB14" si="313">CA14&amp;CB31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CC14" t="str">
         <f t="shared" ref="CC14" si="314">CB14&amp;CC31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CD14" t="str">
         <f t="shared" ref="CD14" si="315">CC14&amp;CD31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CE14" t="str">
         <f t="shared" ref="CE14" si="316">CD14&amp;CE31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CF14" t="str">
         <f t="shared" ref="CF14" si="317">CE14&amp;CF31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CG14" t="str">
         <f t="shared" ref="CG14" si="318">CF14&amp;CG31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CH14" t="str">
         <f t="shared" ref="CH14" si="319">CG14&amp;CH31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CI14" t="str">
         <f t="shared" ref="CI14" si="320">CH14&amp;CI31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CJ14" t="str">
         <f t="shared" ref="CJ14" si="321">CI14&amp;CJ31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CK14" t="str">
         <f t="shared" ref="CK14" si="322">CJ14&amp;CK31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CL14" t="str">
         <f t="shared" ref="CL14" si="323">CK14&amp;CL31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CM14" t="str">
         <f t="shared" ref="CM14" si="324">CL14&amp;CM31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CN14" t="str">
         <f t="shared" ref="CN14" si="325">CM14&amp;CN31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CO14" t="str">
         <f t="shared" ref="CO14" si="326">CN14&amp;CO31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CP14" t="str">
         <f t="shared" ref="CP14" si="327">CO14&amp;CP31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CQ14" t="str">
         <f t="shared" ref="CQ14" si="328">CP14&amp;CQ31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CR14" t="str">
         <f t="shared" ref="CR14" si="329">CQ14&amp;CR31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CS14" t="str">
         <f t="shared" ref="CS14" si="330">CR14&amp;CS31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CT14" t="str">
         <f t="shared" ref="CT14" si="331">CS14&amp;CT31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CU14" t="str">
         <f t="shared" ref="CU14" si="332">CT14&amp;CU31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CV14" t="str">
         <f t="shared" ref="CV14" si="333">CU14&amp;CV31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CW14" t="str">
         <f t="shared" ref="CW14" si="334">CV14&amp;CW31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CX14" t="str">
         <f t="shared" ref="CX14" si="335">CW14&amp;CX31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CY14" t="str">
         <f t="shared" ref="CY14" si="336">CX14&amp;CY31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="CZ14" t="str">
         <f t="shared" ref="CZ14" si="337">CY14&amp;CZ31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DA14" t="str">
         <f t="shared" ref="DA14" si="338">CZ14&amp;DA31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DB14" t="str">
         <f t="shared" ref="DB14" si="339">DA14&amp;DB31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DC14" t="str">
         <f t="shared" ref="DC14" si="340">DB14&amp;DC31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DD14" t="str">
         <f t="shared" ref="DD14" si="341">DC14&amp;DD31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DE14" t="str">
         <f t="shared" ref="DE14" si="342">DD14&amp;DE31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DF14" t="str">
         <f t="shared" ref="DF14" si="343">DE14&amp;DF31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DG14" t="str">
         <f t="shared" ref="DG14" si="344">DF14&amp;DG31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DH14" t="str">
         <f t="shared" ref="DH14" si="345">DG14&amp;DH31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DI14" t="str">
         <f t="shared" ref="DI14:EZ14" si="346">DH14&amp;DI31</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DJ14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DK14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DL14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DM14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DN14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DO14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DP14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DQ14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DR14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DS14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DT14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DU14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DV14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DW14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DX14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DY14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="DZ14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EA14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EB14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EC14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="ED14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EE14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EF14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EG14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EH14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EI14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EJ14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EK14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EL14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EM14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EN14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EO14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EP14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EQ14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="ER14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="ES14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="ET14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EU14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EV14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EW14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EX14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EY14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="EZ14" t="str">
         <f t="shared" si="346"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
       <c r="FB14" t="str">
         <f t="shared" si="240"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}</v>
       </c>
     </row>
     <row r="15" spans="1:158" x14ac:dyDescent="0.15">
@@ -24374,7 +24374,7 @@
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="133"/>
-        <v>[{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}]</v>
+        <v>[{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}]</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -24384,607 +24384,607 @@
       </c>
       <c r="G15" t="str">
         <f>G32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0}</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" ref="H15" si="347">G15&amp;H32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0}</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" ref="I15" si="348">H15&amp;I32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0}</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" ref="J15" si="349">I15&amp;J32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" ref="K15" si="350">J15&amp;K32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15" si="351">K15&amp;L32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" ref="M15" si="352">L15&amp;M32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" ref="N15" si="353">M15&amp;N32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" ref="O15" si="354">N15&amp;O32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" ref="P15" si="355">O15&amp;P32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" ref="Q15" si="356">P15&amp;Q32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="R15" t="str">
         <f t="shared" ref="R15" si="357">Q15&amp;R32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" ref="S15" si="358">R15&amp;S32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" ref="T15" si="359">S15&amp;T32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" ref="U15" si="360">T15&amp;U32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" ref="V15" si="361">U15&amp;V32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" ref="W15" si="362">V15&amp;W32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" ref="X15" si="363">W15&amp;X32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" ref="Y15" si="364">X15&amp;Y32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="Z15" t="str">
         <f t="shared" ref="Z15" si="365">Y15&amp;Z32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AA15" t="str">
         <f t="shared" ref="AA15" si="366">Z15&amp;AA32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" ref="AB15" si="367">AA15&amp;AB32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" ref="AC15" si="368">AB15&amp;AC32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AD15" t="str">
         <f t="shared" ref="AD15" si="369">AC15&amp;AD32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AE15" t="str">
         <f t="shared" ref="AE15" si="370">AD15&amp;AE32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AF15" t="str">
         <f t="shared" ref="AF15" si="371">AE15&amp;AF32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AG15" t="str">
         <f t="shared" ref="AG15" si="372">AF15&amp;AG32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AH15" t="str">
         <f t="shared" ref="AH15" si="373">AG15&amp;AH32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AI15" t="str">
         <f t="shared" ref="AI15" si="374">AH15&amp;AI32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AJ15" t="str">
         <f t="shared" ref="AJ15" si="375">AI15&amp;AJ32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AK15" t="str">
         <f t="shared" ref="AK15" si="376">AJ15&amp;AK32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AL15" t="str">
         <f t="shared" ref="AL15" si="377">AK15&amp;AL32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AM15" t="str">
         <f t="shared" ref="AM15" si="378">AL15&amp;AM32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AN15" t="str">
         <f t="shared" ref="AN15" si="379">AM15&amp;AN32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AO15" t="str">
         <f t="shared" ref="AO15" si="380">AN15&amp;AO32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AP15" t="str">
         <f t="shared" ref="AP15" si="381">AO15&amp;AP32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AQ15" t="str">
         <f t="shared" ref="AQ15" si="382">AP15&amp;AQ32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AR15" t="str">
         <f t="shared" ref="AR15" si="383">AQ15&amp;AR32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AS15" t="str">
         <f t="shared" ref="AS15" si="384">AR15&amp;AS32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AT15" t="str">
         <f t="shared" ref="AT15" si="385">AS15&amp;AT32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AU15" t="str">
         <f t="shared" ref="AU15" si="386">AT15&amp;AU32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AV15" t="str">
         <f t="shared" ref="AV15" si="387">AU15&amp;AV32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AW15" t="str">
         <f t="shared" ref="AW15" si="388">AV15&amp;AW32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AX15" t="str">
         <f t="shared" ref="AX15" si="389">AW15&amp;AX32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AY15" t="str">
         <f t="shared" ref="AY15" si="390">AX15&amp;AY32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="AZ15" t="str">
         <f t="shared" ref="AZ15" si="391">AY15&amp;AZ32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BA15" t="str">
         <f t="shared" ref="BA15" si="392">AZ15&amp;BA32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BB15" t="str">
         <f t="shared" ref="BB15" si="393">BA15&amp;BB32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BC15" t="str">
         <f t="shared" ref="BC15" si="394">BB15&amp;BC32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BD15" t="str">
         <f t="shared" ref="BD15" si="395">BC15&amp;BD32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BE15" t="str">
         <f t="shared" ref="BE15" si="396">BD15&amp;BE32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BF15" t="str">
         <f t="shared" ref="BF15" si="397">BE15&amp;BF32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BG15" t="str">
         <f t="shared" ref="BG15" si="398">BF15&amp;BG32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BH15" t="str">
         <f t="shared" ref="BH15" si="399">BG15&amp;BH32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BI15" t="str">
         <f t="shared" ref="BI15" si="400">BH15&amp;BI32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BJ15" t="str">
         <f t="shared" ref="BJ15" si="401">BI15&amp;BJ32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BK15" t="str">
         <f t="shared" ref="BK15" si="402">BJ15&amp;BK32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BL15" t="str">
         <f t="shared" ref="BL15" si="403">BK15&amp;BL32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BM15" t="str">
         <f t="shared" ref="BM15" si="404">BL15&amp;BM32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BN15" t="str">
         <f t="shared" ref="BN15" si="405">BM15&amp;BN32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BO15" t="str">
         <f t="shared" ref="BO15" si="406">BN15&amp;BO32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BP15" t="str">
         <f t="shared" ref="BP15" si="407">BO15&amp;BP32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BQ15" t="str">
         <f t="shared" ref="BQ15" si="408">BP15&amp;BQ32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BR15" t="str">
         <f t="shared" ref="BR15" si="409">BQ15&amp;BR32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BS15" t="str">
         <f t="shared" ref="BS15" si="410">BR15&amp;BS32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BT15" t="str">
         <f t="shared" ref="BT15" si="411">BS15&amp;BT32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BU15" t="str">
         <f t="shared" ref="BU15" si="412">BT15&amp;BU32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BV15" t="str">
         <f t="shared" ref="BV15" si="413">BU15&amp;BV32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BW15" t="str">
         <f t="shared" ref="BW15" si="414">BV15&amp;BW32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BX15" t="str">
         <f t="shared" ref="BX15" si="415">BW15&amp;BX32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BY15" t="str">
         <f t="shared" ref="BY15" si="416">BX15&amp;BY32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="BZ15" t="str">
         <f t="shared" ref="BZ15" si="417">BY15&amp;BZ32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CA15" t="str">
         <f t="shared" ref="CA15" si="418">BZ15&amp;CA32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CB15" t="str">
         <f t="shared" ref="CB15" si="419">CA15&amp;CB32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CC15" t="str">
         <f t="shared" ref="CC15" si="420">CB15&amp;CC32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CD15" t="str">
         <f t="shared" ref="CD15" si="421">CC15&amp;CD32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CE15" t="str">
         <f t="shared" ref="CE15" si="422">CD15&amp;CE32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CF15" t="str">
         <f t="shared" ref="CF15" si="423">CE15&amp;CF32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CG15" t="str">
         <f t="shared" ref="CG15" si="424">CF15&amp;CG32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CH15" t="str">
         <f t="shared" ref="CH15" si="425">CG15&amp;CH32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CI15" t="str">
         <f t="shared" ref="CI15" si="426">CH15&amp;CI32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CJ15" t="str">
         <f t="shared" ref="CJ15" si="427">CI15&amp;CJ32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CK15" t="str">
         <f t="shared" ref="CK15" si="428">CJ15&amp;CK32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CL15" t="str">
         <f t="shared" ref="CL15" si="429">CK15&amp;CL32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CM15" t="str">
         <f t="shared" ref="CM15" si="430">CL15&amp;CM32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CN15" t="str">
         <f t="shared" ref="CN15" si="431">CM15&amp;CN32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CO15" t="str">
         <f t="shared" ref="CO15" si="432">CN15&amp;CO32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CP15" t="str">
         <f t="shared" ref="CP15" si="433">CO15&amp;CP32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CQ15" t="str">
         <f t="shared" ref="CQ15" si="434">CP15&amp;CQ32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CR15" t="str">
         <f t="shared" ref="CR15" si="435">CQ15&amp;CR32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CS15" t="str">
         <f t="shared" ref="CS15" si="436">CR15&amp;CS32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CT15" t="str">
         <f t="shared" ref="CT15" si="437">CS15&amp;CT32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CU15" t="str">
         <f t="shared" ref="CU15" si="438">CT15&amp;CU32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CV15" t="str">
         <f t="shared" ref="CV15" si="439">CU15&amp;CV32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CW15" t="str">
         <f t="shared" ref="CW15" si="440">CV15&amp;CW32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CX15" t="str">
         <f t="shared" ref="CX15" si="441">CW15&amp;CX32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CY15" t="str">
         <f t="shared" ref="CY15" si="442">CX15&amp;CY32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="CZ15" t="str">
         <f t="shared" ref="CZ15" si="443">CY15&amp;CZ32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DA15" t="str">
         <f t="shared" ref="DA15" si="444">CZ15&amp;DA32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DB15" t="str">
         <f t="shared" ref="DB15" si="445">DA15&amp;DB32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DC15" t="str">
         <f t="shared" ref="DC15" si="446">DB15&amp;DC32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DD15" t="str">
         <f t="shared" ref="DD15" si="447">DC15&amp;DD32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DE15" t="str">
         <f t="shared" ref="DE15" si="448">DD15&amp;DE32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DF15" t="str">
         <f t="shared" ref="DF15" si="449">DE15&amp;DF32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DG15" t="str">
         <f t="shared" ref="DG15" si="450">DF15&amp;DG32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DH15" t="str">
         <f t="shared" ref="DH15" si="451">DG15&amp;DH32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DI15" t="str">
         <f t="shared" ref="DI15:EZ15" si="452">DH15&amp;DI32</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DJ15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DK15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DL15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DM15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DN15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DO15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DP15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DQ15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DR15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DS15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DT15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DU15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DV15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DW15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DX15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DY15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="DZ15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EA15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EB15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EC15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="ED15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EE15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EF15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EG15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EH15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EI15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EJ15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EK15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EL15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EM15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EN15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EO15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EP15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EQ15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="ER15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="ES15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="ET15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EU15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EV15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EW15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EX15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EY15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="EZ15" t="str">
         <f t="shared" si="452"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
       <c r="FB15" t="str">
         <f t="shared" si="240"/>
-        <v>{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}</v>
       </c>
     </row>
     <row r="16" spans="1:158" x14ac:dyDescent="0.15">
@@ -24999,7 +24999,7 @@
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="133"/>
-        <v>[{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}]</v>
+        <v>[{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}]</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -25013,603 +25013,603 @@
       </c>
       <c r="H16" t="str">
         <f t="shared" ref="H16" si="453">G16&amp;H33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0}</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" ref="I16" si="454">H16&amp;I33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0}</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" ref="J16" si="455">I16&amp;J33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0}</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" ref="K16" si="456">J16&amp;K33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16" si="457">K16&amp;L33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" ref="M16" si="458">L16&amp;M33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" ref="N16" si="459">M16&amp;N33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" ref="O16" si="460">N16&amp;O33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" ref="P16" si="461">O16&amp;P33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" ref="Q16" si="462">P16&amp;Q33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" ref="R16" si="463">Q16&amp;R33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" ref="S16" si="464">R16&amp;S33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" ref="T16" si="465">S16&amp;T33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" ref="U16" si="466">T16&amp;U33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" ref="V16" si="467">U16&amp;V33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" ref="W16" si="468">V16&amp;W33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" ref="X16" si="469">W16&amp;X33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" ref="Y16" si="470">X16&amp;Y33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="Z16" t="str">
         <f t="shared" ref="Z16" si="471">Y16&amp;Z33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AA16" t="str">
         <f t="shared" ref="AA16" si="472">Z16&amp;AA33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" ref="AB16" si="473">AA16&amp;AB33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AC16" t="str">
         <f t="shared" ref="AC16" si="474">AB16&amp;AC33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AD16" t="str">
         <f t="shared" ref="AD16" si="475">AC16&amp;AD33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AE16" t="str">
         <f t="shared" ref="AE16" si="476">AD16&amp;AE33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AF16" t="str">
         <f t="shared" ref="AF16" si="477">AE16&amp;AF33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AG16" t="str">
         <f t="shared" ref="AG16" si="478">AF16&amp;AG33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AH16" t="str">
         <f t="shared" ref="AH16" si="479">AG16&amp;AH33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AI16" t="str">
         <f t="shared" ref="AI16" si="480">AH16&amp;AI33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AJ16" t="str">
         <f t="shared" ref="AJ16" si="481">AI16&amp;AJ33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AK16" t="str">
         <f t="shared" ref="AK16" si="482">AJ16&amp;AK33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AL16" t="str">
         <f t="shared" ref="AL16" si="483">AK16&amp;AL33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AM16" t="str">
         <f t="shared" ref="AM16" si="484">AL16&amp;AM33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AN16" t="str">
         <f t="shared" ref="AN16" si="485">AM16&amp;AN33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AO16" t="str">
         <f t="shared" ref="AO16" si="486">AN16&amp;AO33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AP16" t="str">
         <f t="shared" ref="AP16" si="487">AO16&amp;AP33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AQ16" t="str">
         <f t="shared" ref="AQ16" si="488">AP16&amp;AQ33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AR16" t="str">
         <f t="shared" ref="AR16" si="489">AQ16&amp;AR33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AS16" t="str">
         <f t="shared" ref="AS16" si="490">AR16&amp;AS33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AT16" t="str">
         <f t="shared" ref="AT16" si="491">AS16&amp;AT33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AU16" t="str">
         <f t="shared" ref="AU16" si="492">AT16&amp;AU33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AV16" t="str">
         <f t="shared" ref="AV16" si="493">AU16&amp;AV33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AW16" t="str">
         <f t="shared" ref="AW16" si="494">AV16&amp;AW33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AX16" t="str">
         <f t="shared" ref="AX16" si="495">AW16&amp;AX33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AY16" t="str">
         <f t="shared" ref="AY16" si="496">AX16&amp;AY33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="AZ16" t="str">
         <f t="shared" ref="AZ16" si="497">AY16&amp;AZ33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BA16" t="str">
         <f t="shared" ref="BA16" si="498">AZ16&amp;BA33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BB16" t="str">
         <f t="shared" ref="BB16" si="499">BA16&amp;BB33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BC16" t="str">
         <f t="shared" ref="BC16" si="500">BB16&amp;BC33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BD16" t="str">
         <f t="shared" ref="BD16" si="501">BC16&amp;BD33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BE16" t="str">
         <f t="shared" ref="BE16" si="502">BD16&amp;BE33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BF16" t="str">
         <f t="shared" ref="BF16" si="503">BE16&amp;BF33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BG16" t="str">
         <f t="shared" ref="BG16" si="504">BF16&amp;BG33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BH16" t="str">
         <f t="shared" ref="BH16" si="505">BG16&amp;BH33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BI16" t="str">
         <f t="shared" ref="BI16" si="506">BH16&amp;BI33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BJ16" t="str">
         <f t="shared" ref="BJ16" si="507">BI16&amp;BJ33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BK16" t="str">
         <f t="shared" ref="BK16" si="508">BJ16&amp;BK33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BL16" t="str">
         <f t="shared" ref="BL16" si="509">BK16&amp;BL33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BM16" t="str">
         <f t="shared" ref="BM16" si="510">BL16&amp;BM33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BN16" t="str">
         <f t="shared" ref="BN16" si="511">BM16&amp;BN33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BO16" t="str">
         <f t="shared" ref="BO16" si="512">BN16&amp;BO33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BP16" t="str">
         <f t="shared" ref="BP16" si="513">BO16&amp;BP33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BQ16" t="str">
         <f t="shared" ref="BQ16" si="514">BP16&amp;BQ33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BR16" t="str">
         <f t="shared" ref="BR16" si="515">BQ16&amp;BR33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BS16" t="str">
         <f t="shared" ref="BS16" si="516">BR16&amp;BS33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BT16" t="str">
         <f t="shared" ref="BT16" si="517">BS16&amp;BT33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BU16" t="str">
         <f t="shared" ref="BU16" si="518">BT16&amp;BU33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BV16" t="str">
         <f t="shared" ref="BV16" si="519">BU16&amp;BV33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BW16" t="str">
         <f t="shared" ref="BW16" si="520">BV16&amp;BW33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BX16" t="str">
         <f t="shared" ref="BX16" si="521">BW16&amp;BX33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BY16" t="str">
         <f t="shared" ref="BY16" si="522">BX16&amp;BY33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="BZ16" t="str">
         <f t="shared" ref="BZ16" si="523">BY16&amp;BZ33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CA16" t="str">
         <f t="shared" ref="CA16" si="524">BZ16&amp;CA33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CB16" t="str">
         <f t="shared" ref="CB16" si="525">CA16&amp;CB33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CC16" t="str">
         <f t="shared" ref="CC16" si="526">CB16&amp;CC33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CD16" t="str">
         <f t="shared" ref="CD16" si="527">CC16&amp;CD33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CE16" t="str">
         <f t="shared" ref="CE16" si="528">CD16&amp;CE33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CF16" t="str">
         <f t="shared" ref="CF16" si="529">CE16&amp;CF33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CG16" t="str">
         <f t="shared" ref="CG16" si="530">CF16&amp;CG33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CH16" t="str">
         <f t="shared" ref="CH16" si="531">CG16&amp;CH33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CI16" t="str">
         <f t="shared" ref="CI16" si="532">CH16&amp;CI33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CJ16" t="str">
         <f t="shared" ref="CJ16" si="533">CI16&amp;CJ33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CK16" t="str">
         <f t="shared" ref="CK16" si="534">CJ16&amp;CK33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CL16" t="str">
         <f t="shared" ref="CL16" si="535">CK16&amp;CL33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CM16" t="str">
         <f t="shared" ref="CM16" si="536">CL16&amp;CM33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CN16" t="str">
         <f t="shared" ref="CN16" si="537">CM16&amp;CN33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CO16" t="str">
         <f t="shared" ref="CO16" si="538">CN16&amp;CO33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CP16" t="str">
         <f t="shared" ref="CP16" si="539">CO16&amp;CP33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CQ16" t="str">
         <f t="shared" ref="CQ16" si="540">CP16&amp;CQ33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CR16" t="str">
         <f t="shared" ref="CR16" si="541">CQ16&amp;CR33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CS16" t="str">
         <f t="shared" ref="CS16" si="542">CR16&amp;CS33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CT16" t="str">
         <f t="shared" ref="CT16" si="543">CS16&amp;CT33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CU16" t="str">
         <f t="shared" ref="CU16" si="544">CT16&amp;CU33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CV16" t="str">
         <f t="shared" ref="CV16" si="545">CU16&amp;CV33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CW16" t="str">
         <f t="shared" ref="CW16" si="546">CV16&amp;CW33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CX16" t="str">
         <f t="shared" ref="CX16" si="547">CW16&amp;CX33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CY16" t="str">
         <f t="shared" ref="CY16" si="548">CX16&amp;CY33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="CZ16" t="str">
         <f t="shared" ref="CZ16" si="549">CY16&amp;CZ33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DA16" t="str">
         <f t="shared" ref="DA16" si="550">CZ16&amp;DA33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DB16" t="str">
         <f t="shared" ref="DB16" si="551">DA16&amp;DB33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DC16" t="str">
         <f t="shared" ref="DC16" si="552">DB16&amp;DC33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DD16" t="str">
         <f t="shared" ref="DD16" si="553">DC16&amp;DD33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DE16" t="str">
         <f t="shared" ref="DE16" si="554">DD16&amp;DE33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DF16" t="str">
         <f t="shared" ref="DF16" si="555">DE16&amp;DF33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DG16" t="str">
         <f t="shared" ref="DG16" si="556">DF16&amp;DG33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DH16" t="str">
         <f t="shared" ref="DH16" si="557">DG16&amp;DH33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DI16" t="str">
         <f t="shared" ref="DI16:EZ16" si="558">DH16&amp;DI33</f>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DJ16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DK16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DL16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DM16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DN16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DO16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DP16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DQ16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DR16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DS16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DT16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DU16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DV16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DW16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DX16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DY16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="DZ16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EA16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EB16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EC16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="ED16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EE16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EF16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EG16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EH16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EI16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EJ16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EK16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EL16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EM16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EN16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EO16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EP16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EQ16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="ER16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="ES16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="ET16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EU16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EV16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EW16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EX16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EY16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="EZ16" t="str">
         <f t="shared" si="558"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
       <c r="FB16" t="str">
         <f t="shared" si="240"/>
-        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
+        <v>{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}</v>
       </c>
     </row>
     <row r="17" spans="1:156" x14ac:dyDescent="0.15">
@@ -25656,7 +25656,7 @@
       </c>
       <c r="D21" s="3" t="str">
         <f>"["&amp;G21&amp;H21&amp;I21&amp;J21&amp;K21&amp;L21&amp;M21&amp;N21&amp;O21&amp;P21&amp;Q21&amp;R21&amp;S21&amp;T21&amp;U21&amp;V21&amp;W21&amp;X21&amp;Y21&amp;Z21&amp;AA21&amp;AB21&amp;AC21&amp;AD21&amp;AE21&amp;AF21&amp;AG21&amp;AH21&amp;AI21&amp;AJ21&amp;AK21&amp;AL21&amp;AM21&amp;AN21&amp;AO21&amp;AP21&amp;AQ21&amp;AR21&amp;AS21&amp;AT21&amp;AU21&amp;AV21&amp;AW21&amp;AX21&amp;AY21&amp;AZ21&amp;"]"</f>
-        <v>[{"t":"i","i":35,"c":5,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}]</v>
+        <v>[{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29001,"c":1,"tr":0},{"t":"i","i":1,"c":100,"tr":0}]</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -25666,7 +25666,7 @@
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP($A21*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
-        <v>{"t":"i","i":35,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0}</v>
       </c>
       <c r="H21" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A21*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
@@ -26277,7 +26277,7 @@
       </c>
       <c r="D22" s="3" t="str">
         <f>"["&amp;G22&amp;H22&amp;I22&amp;J22&amp;K22&amp;L22&amp;M22&amp;N22&amp;O22&amp;P22&amp;Q22&amp;R22&amp;S22&amp;T22&amp;U22&amp;V22&amp;W22&amp;X22&amp;Y22&amp;Z22&amp;AA22&amp;AB22&amp;AC22&amp;AD22&amp;AE22&amp;AF22&amp;AG22&amp;AH22&amp;AI22&amp;AJ22&amp;AK22&amp;AL22&amp;AM22&amp;AN22&amp;AO22&amp;AP22&amp;AQ22&amp;AR22&amp;AS22&amp;AT22&amp;AU22&amp;AV22&amp;AW22&amp;AX22&amp;AY22&amp;AZ22&amp;"]"</f>
-        <v>[{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":1,"c":500,"tr":0}]</v>
+        <v>[{"t":"i","i":35,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":1,"c":500,"tr":0}]</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -26287,11 +26287,11 @@
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP($A22*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0}</v>
       </c>
       <c r="H22" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A22*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"t":"i","i":29002,"c":5,"tr":0}</v>
+        <v>,{"t":"i","i":29002,"c":1,"tr":0}</v>
       </c>
       <c r="I22" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A22*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
@@ -26898,7 +26898,7 @@
       </c>
       <c r="D23" s="3" t="str">
         <f>"["&amp;G23&amp;H23&amp;I23&amp;J23&amp;K23&amp;L23&amp;M23&amp;N23&amp;O23&amp;P23&amp;Q23&amp;R23&amp;S23&amp;T23&amp;U23&amp;V23&amp;W23&amp;X23&amp;Y23&amp;Z23&amp;AA23&amp;AB23&amp;AC23&amp;AD23&amp;AE23&amp;AF23&amp;AG23&amp;AH23&amp;AI23&amp;AJ23&amp;AK23&amp;AL23&amp;AM23&amp;AN23&amp;AO23&amp;AP23&amp;AQ23&amp;AR23&amp;AS23&amp;AT23&amp;AU23&amp;AV23&amp;AW23&amp;AX23&amp;AY23&amp;AZ23&amp;"]"</f>
-        <v>[{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":5,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}]</v>
+        <v>[{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29002,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}]</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -26908,11 +26908,11 @@
       </c>
       <c r="G23" t="str">
         <f>VLOOKUP($A23*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0}</v>
       </c>
       <c r="H23" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A23*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"t":"i","i":29002,"c":5,"tr":0}</v>
+        <v>,{"t":"i","i":29002,"c":1,"tr":0}</v>
       </c>
       <c r="I23" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A23*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
@@ -27519,7 +27519,7 @@
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" ref="D24:D25" si="559">"["&amp;G24&amp;H24&amp;I24&amp;J24&amp;K24&amp;L24&amp;M24&amp;N24&amp;O24&amp;P24&amp;Q24&amp;R24&amp;S24&amp;T24&amp;U24&amp;V24&amp;W24&amp;X24&amp;Y24&amp;Z24&amp;AA24&amp;AB24&amp;AC24&amp;AD24&amp;AE24&amp;AF24&amp;AG24&amp;AH24&amp;AI24&amp;AJ24&amp;AK24&amp;AL24&amp;AM24&amp;AN24&amp;AO24&amp;AP24&amp;AQ24&amp;AR24&amp;AS24&amp;AT24&amp;AU24&amp;AV24&amp;AW24&amp;AX24&amp;AY24&amp;AZ24&amp;"]"</f>
-        <v>[{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}]</v>
+        <v>[{"t":"i","i":36,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":1,"c":1500,"tr":0}]</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -27529,11 +27529,11 @@
       </c>
       <c r="G24" t="str">
         <f>VLOOKUP($A24*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0}</v>
       </c>
       <c r="H24" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A24*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"t":"i","i":29003,"c":2,"tr":0}</v>
+        <v>,{"t":"i","i":29003,"c":1,"tr":0}</v>
       </c>
       <c r="I24" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A24*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="559"/>
-        <v>[{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}]</v>
+        <v>[{"t":"i","i":37,"c":1,"tr":0},{"t":"i","i":29003,"c":1,"tr":0},{"t":"f","i":61,"c":1,"tr":0},{"t":"i","i":88,"c":1,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}]</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -28154,15 +28154,15 @@
       </c>
       <c r="H25" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A25*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"t":"i","i":29003,"c":2,"tr":0}</v>
+        <v>,{"t":"i","i":29003,"c":1,"tr":0}</v>
       </c>
       <c r="I25" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A25*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"t":"f","i":61,"c":2,"tr":0}</v>
+        <v>,{"t":"f","i":61,"c":1,"tr":0}</v>
       </c>
       <c r="J25" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A25*1000+J$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"t":"i","i":88,"c":2,"tr":0}</v>
+        <v>,{"t":"i","i":88,"c":1,"tr":0}</v>
       </c>
       <c r="K25" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A25*1000+K$3,奖励辅助!$B:$M,12,FALSE),"")</f>
@@ -28761,7 +28761,7 @@
       </c>
       <c r="D29" s="3" t="str">
         <f>"["&amp;G29&amp;H29&amp;I29&amp;J29&amp;K29&amp;L29&amp;M29&amp;N29&amp;O29&amp;P29&amp;Q29&amp;R29&amp;S29&amp;T29&amp;U29&amp;V29&amp;W29&amp;X29&amp;Y29&amp;Z29&amp;AA29&amp;AB29&amp;AC29&amp;AD29&amp;AE29&amp;AF29&amp;AG29&amp;AH29&amp;AI29&amp;AJ29&amp;AK29&amp;AL29&amp;AM29&amp;AN29&amp;AO29&amp;AP29&amp;AQ29&amp;AR29&amp;AS29&amp;AT29&amp;AU29&amp;AV29&amp;AW29&amp;AX29&amp;AY29&amp;AZ29&amp;"]"</f>
-        <v>[{"t":"i","i":35,"c":10,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}]</v>
+        <v>[{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29001,"c":2,"tr":0},{"t":"i","i":1,"c":200,"tr":0}]</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -28771,7 +28771,7 @@
       </c>
       <c r="G29" t="str">
         <f>VLOOKUP($A29*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0}</v>
       </c>
       <c r="H29" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A29*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
@@ -29382,7 +29382,7 @@
       </c>
       <c r="D30" s="3" t="str">
         <f>"["&amp;G30&amp;H30&amp;I30&amp;J30&amp;K30&amp;L30&amp;M30&amp;N30&amp;O30&amp;P30&amp;Q30&amp;R30&amp;S30&amp;T30&amp;U30&amp;V30&amp;W30&amp;X30&amp;Y30&amp;Z30&amp;AA30&amp;AB30&amp;AC30&amp;AD30&amp;AE30&amp;AF30&amp;AG30&amp;AH30&amp;AI30&amp;AJ30&amp;AK30&amp;AL30&amp;AM30&amp;AN30&amp;AO30&amp;AP30&amp;AQ30&amp;AR30&amp;AS30&amp;AT30&amp;AU30&amp;AV30&amp;AW30&amp;AX30&amp;AY30&amp;AZ30&amp;"]"</f>
-        <v>[{"t":"i","i":35,"c":20,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}]</v>
+        <v>[{"t":"i","i":35,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":1,"c":1000,"tr":0}]</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -29392,11 +29392,11 @@
       </c>
       <c r="G30" t="str">
         <f>VLOOKUP($A30*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0}</v>
       </c>
       <c r="H30" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A30*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"t":"i","i":29002,"c":10,"tr":0}</v>
+        <v>,{"t":"i","i":29002,"c":2,"tr":0}</v>
       </c>
       <c r="I30" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A30*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
@@ -30003,7 +30003,7 @@
       </c>
       <c r="D31" s="3" t="str">
         <f>"["&amp;G31&amp;H31&amp;I31&amp;J31&amp;K31&amp;L31&amp;M31&amp;N31&amp;O31&amp;P31&amp;Q31&amp;R31&amp;S31&amp;T31&amp;U31&amp;V31&amp;W31&amp;X31&amp;Y31&amp;Z31&amp;AA31&amp;AB31&amp;AC31&amp;AD31&amp;AE31&amp;AF31&amp;AG31&amp;AH31&amp;AI31&amp;AJ31&amp;AK31&amp;AL31&amp;AM31&amp;AN31&amp;AO31&amp;AP31&amp;AQ31&amp;AR31&amp;AS31&amp;AT31&amp;AU31&amp;AV31&amp;AW31&amp;AX31&amp;AY31&amp;AZ31&amp;"]"</f>
-        <v>[{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29002,"c":10,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}]</v>
+        <v>[{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29002,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":2000,"tr":0}]</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -30013,11 +30013,11 @@
       </c>
       <c r="G31" t="str">
         <f>VLOOKUP($A31*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0}</v>
       </c>
       <c r="H31" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A31*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"t":"i","i":29002,"c":10,"tr":0}</v>
+        <v>,{"t":"i","i":29002,"c":2,"tr":0}</v>
       </c>
       <c r="I31" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A31*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
@@ -30624,7 +30624,7 @@
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" ref="D32:D33" si="560">"["&amp;G32&amp;H32&amp;I32&amp;J32&amp;K32&amp;L32&amp;M32&amp;N32&amp;O32&amp;P32&amp;Q32&amp;R32&amp;S32&amp;T32&amp;U32&amp;V32&amp;W32&amp;X32&amp;Y32&amp;Z32&amp;AA32&amp;AB32&amp;AC32&amp;AD32&amp;AE32&amp;AF32&amp;AG32&amp;AH32&amp;AI32&amp;AJ32&amp;AK32&amp;AL32&amp;AM32&amp;AN32&amp;AO32&amp;AP32&amp;AQ32&amp;AR32&amp;AS32&amp;AT32&amp;AU32&amp;AV32&amp;AW32&amp;AX32&amp;AY32&amp;AZ32&amp;"]"</f>
-        <v>[{"t":"i","i":36,"c":4,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}]</v>
+        <v>[{"t":"i","i":36,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":1,"c":3000,"tr":0}]</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -30634,11 +30634,11 @@
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP($A32*1000+G$3,奖励辅助!$B:$M,12,FALSE)</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0}</v>
       </c>
       <c r="H32" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A32*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"t":"i","i":29003,"c":4,"tr":0}</v>
+        <v>,{"t":"i","i":29003,"c":2,"tr":0}</v>
       </c>
       <c r="I32" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A32*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
@@ -31245,7 +31245,7 @@
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="560"/>
-        <v>[{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":4,"tr":0},{"t":"f","i":61,"c":4,"tr":0},{"t":"i","i":88,"c":4,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}]</v>
+        <v>[{"t":"i","i":37,"c":2,"tr":0},{"t":"i","i":29003,"c":2,"tr":0},{"t":"f","i":61,"c":2,"tr":0},{"t":"i","i":88,"c":2,"tr":0},{"t":"i","i":1,"c":4000,"tr":0}]</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
@@ -31259,15 +31259,15 @@
       </c>
       <c r="H33" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A33*1000+H$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"t":"i","i":29003,"c":4,"tr":0}</v>
+        <v>,{"t":"i","i":29003,"c":2,"tr":0}</v>
       </c>
       <c r="I33" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A33*1000+I$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"t":"f","i":61,"c":4,"tr":0}</v>
+        <v>,{"t":"f","i":61,"c":2,"tr":0}</v>
       </c>
       <c r="J33" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A33*1000+J$3,奖励辅助!$B:$M,12,FALSE),"")</f>
-        <v>,{"t":"i","i":88,"c":4,"tr":0}</v>
+        <v>,{"t":"i","i":88,"c":2,"tr":0}</v>
       </c>
       <c r="K33" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A33*1000+K$3,奖励辅助!$B:$M,12,FALSE),"")</f>
@@ -31865,8 +31865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -31988,7 +31988,7 @@
         <v>92</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" t="str">
         <f>IF(E8=0,"",I$5&amp;E8&amp;I$6)</f>
@@ -32000,7 +32000,7 @@
       </c>
       <c r="K8" t="str">
         <f>K$5&amp;H8&amp;K$6</f>
-        <v>,"c":5,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L8" t="str">
         <f>IF(I8="","",L$6)</f>
@@ -32008,7 +32008,7 @@
       </c>
       <c r="M8" t="str">
         <f>I8&amp;J8&amp;K8&amp;L8</f>
-        <v>{"t":"i","i":35,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0}</v>
       </c>
       <c r="R8" t="str">
         <f>VLOOKUP(G8,映射表!A:B,2,FALSE)</f>
@@ -32153,7 +32153,7 @@
         <v>92</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
@@ -32165,7 +32165,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":10,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="4"/>
@@ -32173,7 +32173,7 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" si="5"/>
-        <v>{"t":"i","i":35,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":1,"tr":0}</v>
       </c>
       <c r="R16" t="str">
         <f>VLOOKUP(G16,映射表!A:B,2,FALSE)</f>
@@ -32202,7 +32202,7 @@
         <v>92</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
@@ -32214,7 +32214,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="3"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="4"/>
@@ -32222,7 +32222,7 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" si="5"/>
-        <v>{"t":"i","i":29002,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":29002,"c":1,"tr":0}</v>
       </c>
       <c r="R17" t="str">
         <f>VLOOKUP(G17,映射表!A:B,2,FALSE)</f>
@@ -32335,7 +32335,7 @@
         <v>92</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" ref="I24:I27" si="8">IF(E24=0,"",I$5&amp;E24&amp;I$6)</f>
@@ -32347,7 +32347,7 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" ref="K24:K27" si="9">K$5&amp;H24&amp;K$6</f>
-        <v>,"c":2,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" ref="L24:L27" si="10">IF(I24="","",L$6)</f>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" ref="M24:M27" si="11">I24&amp;J24&amp;K24&amp;L24</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0}</v>
       </c>
       <c r="R24" t="str">
         <f>VLOOKUP(G24,映射表!A:B,2,FALSE)</f>
@@ -32384,7 +32384,7 @@
         <v>92</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="8"/>
@@ -32396,7 +32396,7 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" si="9"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="10"/>
@@ -32404,7 +32404,7 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="11"/>
-        <v>{"t":"i","i":29002,"c":5,"tr":0}</v>
+        <v>{"t":"i","i":29002,"c":1,"tr":0}</v>
       </c>
       <c r="R25" t="str">
         <f>VLOOKUP(G25,映射表!A:B,2,FALSE)</f>
@@ -32577,7 +32577,7 @@
         <v>92</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" ref="I31" si="20">IF(E31=0,"",I$5&amp;E31&amp;I$6)</f>
@@ -32589,7 +32589,7 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" ref="K31" si="21">K$5&amp;H31&amp;K$6</f>
-        <v>,"c":2,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" ref="L31" si="22">IF(I31="","",L$6)</f>
@@ -32597,7 +32597,7 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" ref="M31" si="23">I31&amp;J31&amp;K31&amp;L31</f>
-        <v>{"t":"i","i":36,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":1,"tr":0}</v>
       </c>
       <c r="R31" t="str">
         <f>VLOOKUP(G31,映射表!A:B,2,FALSE)</f>
@@ -32626,7 +32626,7 @@
         <v>92</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" ref="I32:I34" si="25">IF(E32=0,"",I$5&amp;E32&amp;I$6)</f>
@@ -32638,7 +32638,7 @@
       </c>
       <c r="K32" t="str">
         <f t="shared" ref="K32:K34" si="27">K$5&amp;H32&amp;K$6</f>
-        <v>,"c":2,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" ref="L32:L34" si="28">IF(I32="","",L$6)</f>
@@ -32646,7 +32646,7 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" ref="M32:M34" si="29">I32&amp;J32&amp;K32&amp;L32</f>
-        <v>{"t":"i","i":29003,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":29003,"c":1,"tr":0}</v>
       </c>
       <c r="R32" t="str">
         <f>VLOOKUP(G32,映射表!A:B,2,FALSE)</f>
@@ -32857,7 +32857,7 @@
         <v>92</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="37"/>
@@ -32869,7 +32869,7 @@
       </c>
       <c r="K40" t="str">
         <f t="shared" si="39"/>
-        <v>,"c":2,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="40"/>
@@ -32877,7 +32877,7 @@
       </c>
       <c r="M40" t="str">
         <f t="shared" si="41"/>
-        <v>{"t":"i","i":29003,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":29003,"c":1,"tr":0}</v>
       </c>
       <c r="R40" t="str">
         <f>VLOOKUP(G40,映射表!A:B,2,FALSE)</f>
@@ -32906,7 +32906,7 @@
         <v>290</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" ref="I41" si="43">IF(E41=0,"",I$5&amp;E41&amp;I$6)</f>
@@ -32918,7 +32918,7 @@
       </c>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="45">K$5&amp;H41&amp;K$6</f>
-        <v>,"c":2,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" ref="L41" si="46">IF(I41="","",L$6)</f>
@@ -32926,7 +32926,7 @@
       </c>
       <c r="M41" t="str">
         <f t="shared" ref="M41" si="47">I41&amp;J41&amp;K41&amp;L41</f>
-        <v>{"t":"f","i":61,"c":2,"tr":0}</v>
+        <v>{"t":"f","i":61,"c":1,"tr":0}</v>
       </c>
       <c r="R41" t="str">
         <f>VLOOKUP(G41,映射表!A:B,2,FALSE)</f>
@@ -32955,7 +32955,7 @@
         <v>92</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" ref="I42" si="49">IF(E42=0,"",I$5&amp;E42&amp;I$6)</f>
@@ -32967,7 +32967,7 @@
       </c>
       <c r="K42" t="str">
         <f t="shared" ref="K42" si="51">K$5&amp;H42&amp;K$6</f>
-        <v>,"c":2,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" ref="L42" si="52">IF(I42="","",L$6)</f>
@@ -32975,7 +32975,7 @@
       </c>
       <c r="M42" t="str">
         <f t="shared" ref="M42" si="53">I42&amp;J42&amp;K42&amp;L42</f>
-        <v>{"t":"i","i":88,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":88,"c":1,"tr":0}</v>
       </c>
       <c r="R42" t="str">
         <f>VLOOKUP(G42,映射表!A:B,2,FALSE)</f>
@@ -33056,7 +33056,7 @@
         <v>92</v>
       </c>
       <c r="H49">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I49" t="str">
         <f>IF(E49=0,"",I$5&amp;E49&amp;I$6)</f>
@@ -33068,7 +33068,7 @@
       </c>
       <c r="K49" t="str">
         <f>K$5&amp;H49&amp;K$6</f>
-        <v>,"c":10,"tr":0}</v>
+        <v>,"c":2,"tr":0}</v>
       </c>
       <c r="L49" t="str">
         <f>IF(I49="","",L$6)</f>
@@ -33076,7 +33076,7 @@
       </c>
       <c r="M49" t="str">
         <f>I49&amp;J49&amp;K49&amp;L49</f>
-        <v>{"t":"i","i":35,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0}</v>
       </c>
       <c r="R49" t="str">
         <f>VLOOKUP(G49,映射表!A:B,2,FALSE)</f>
@@ -33222,7 +33222,7 @@
         <v>92</v>
       </c>
       <c r="H57">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" ref="I57:I59" si="61">IF(E57=0,"",I$5&amp;E57&amp;I$6)</f>
@@ -33234,7 +33234,7 @@
       </c>
       <c r="K57" t="str">
         <f t="shared" ref="K57:K59" si="63">K$5&amp;H57&amp;K$6</f>
-        <v>,"c":20,"tr":0}</v>
+        <v>,"c":2,"tr":0}</v>
       </c>
       <c r="L57" t="str">
         <f t="shared" ref="L57:L59" si="64">IF(I57="","",L$6)</f>
@@ -33242,7 +33242,7 @@
       </c>
       <c r="M57" t="str">
         <f t="shared" ref="M57:M59" si="65">I57&amp;J57&amp;K57&amp;L57</f>
-        <v>{"t":"i","i":35,"c":20,"tr":0}</v>
+        <v>{"t":"i","i":35,"c":2,"tr":0}</v>
       </c>
       <c r="R57" t="str">
         <f>VLOOKUP(G57,映射表!A:B,2,FALSE)</f>
@@ -33271,7 +33271,7 @@
         <v>92</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="61"/>
@@ -33283,7 +33283,7 @@
       </c>
       <c r="K58" t="str">
         <f t="shared" si="63"/>
-        <v>,"c":10,"tr":0}</v>
+        <v>,"c":2,"tr":0}</v>
       </c>
       <c r="L58" t="str">
         <f t="shared" si="64"/>
@@ -33291,7 +33291,7 @@
       </c>
       <c r="M58" t="str">
         <f t="shared" si="65"/>
-        <v>{"t":"i","i":29002,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":29002,"c":2,"tr":0}</v>
       </c>
       <c r="R58" t="str">
         <f>VLOOKUP(G58,映射表!A:B,2,FALSE)</f>
@@ -33404,7 +33404,7 @@
         <v>92</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="66"/>
@@ -33412,7 +33412,7 @@
       </c>
       <c r="K65" t="str">
         <f t="shared" ref="K65:K68" si="68">K$5&amp;H65&amp;K$6</f>
-        <v>,"c":4,"tr":0}</v>
+        <v>,"c":2,"tr":0}</v>
       </c>
       <c r="L65" t="str">
         <f t="shared" ref="L65:L68" si="69">IF(I65="","",L$6)</f>
@@ -33420,7 +33420,7 @@
       </c>
       <c r="M65" t="str">
         <f t="shared" ref="M65:M68" si="70">I65&amp;J65&amp;K65&amp;L65</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0}</v>
       </c>
       <c r="R65" t="str">
         <f>VLOOKUP(G65,映射表!A:B,2,FALSE)</f>
@@ -33449,7 +33449,7 @@
         <v>92</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" si="66"/>
@@ -33457,7 +33457,7 @@
       </c>
       <c r="K66" t="str">
         <f t="shared" si="68"/>
-        <v>,"c":10,"tr":0}</v>
+        <v>,"c":2,"tr":0}</v>
       </c>
       <c r="L66" t="str">
         <f t="shared" si="69"/>
@@ -33465,7 +33465,7 @@
       </c>
       <c r="M66" t="str">
         <f t="shared" si="70"/>
-        <v>{"t":"i","i":29002,"c":10,"tr":0}</v>
+        <v>{"t":"i","i":29002,"c":2,"tr":0}</v>
       </c>
       <c r="R66" t="str">
         <f>VLOOKUP(G66,映射表!A:B,2,FALSE)</f>
@@ -33631,7 +33631,7 @@
         <v>92</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="66"/>
@@ -33639,7 +33639,7 @@
       </c>
       <c r="K72" t="str">
         <f t="shared" ref="K72:K75" si="72">K$5&amp;H72&amp;K$6</f>
-        <v>,"c":4,"tr":0}</v>
+        <v>,"c":2,"tr":0}</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" ref="L72:L75" si="73">IF(I72="","",L$6)</f>
@@ -33647,7 +33647,7 @@
       </c>
       <c r="M72" t="str">
         <f t="shared" ref="M72:M75" si="74">I72&amp;J72&amp;K72&amp;L72</f>
-        <v>{"t":"i","i":36,"c":4,"tr":0}</v>
+        <v>{"t":"i","i":36,"c":2,"tr":0}</v>
       </c>
       <c r="R72" t="str">
         <f>VLOOKUP(G72,映射表!A:B,2,FALSE)</f>
@@ -33676,7 +33676,7 @@
         <v>92</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" si="66"/>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="K73" t="str">
         <f t="shared" si="72"/>
-        <v>,"c":4,"tr":0}</v>
+        <v>,"c":2,"tr":0}</v>
       </c>
       <c r="L73" t="str">
         <f t="shared" si="73"/>
@@ -33692,7 +33692,7 @@
       </c>
       <c r="M73" t="str">
         <f t="shared" si="74"/>
-        <v>{"t":"i","i":29003,"c":4,"tr":0}</v>
+        <v>{"t":"i","i":29003,"c":2,"tr":0}</v>
       </c>
       <c r="R73" t="str">
         <f>VLOOKUP(G73,映射表!A:B,2,FALSE)</f>
@@ -33892,7 +33892,7 @@
         <v>92</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J81" t="str">
         <f t="shared" si="75"/>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="K81" t="str">
         <f t="shared" si="77"/>
-        <v>,"c":4,"tr":0}</v>
+        <v>,"c":2,"tr":0}</v>
       </c>
       <c r="L81" t="str">
         <f t="shared" si="78"/>
@@ -33908,7 +33908,7 @@
       </c>
       <c r="M81" t="str">
         <f t="shared" si="79"/>
-        <v>{"t":"i","i":29003,"c":4,"tr":0}</v>
+        <v>{"t":"i","i":29003,"c":2,"tr":0}</v>
       </c>
       <c r="R81" t="str">
         <f>VLOOKUP(G81,映射表!A:B,2,FALSE)</f>
@@ -33937,7 +33937,7 @@
         <v>290</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="75"/>
@@ -33945,7 +33945,7 @@
       </c>
       <c r="K82" t="str">
         <f t="shared" si="77"/>
-        <v>,"c":4,"tr":0}</v>
+        <v>,"c":2,"tr":0}</v>
       </c>
       <c r="L82" t="str">
         <f t="shared" si="78"/>
@@ -33953,7 +33953,7 @@
       </c>
       <c r="M82" t="str">
         <f t="shared" si="79"/>
-        <v>{"t":"f","i":61,"c":4,"tr":0}</v>
+        <v>{"t":"f","i":61,"c":2,"tr":0}</v>
       </c>
       <c r="R82" t="str">
         <f>VLOOKUP(G82,映射表!A:B,2,FALSE)</f>
@@ -33982,7 +33982,7 @@
         <v>92</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J83" t="str">
         <f t="shared" si="75"/>
@@ -33990,7 +33990,7 @@
       </c>
       <c r="K83" t="str">
         <f t="shared" si="77"/>
-        <v>,"c":4,"tr":0}</v>
+        <v>,"c":2,"tr":0}</v>
       </c>
       <c r="L83" t="str">
         <f t="shared" si="78"/>
@@ -33998,7 +33998,7 @@
       </c>
       <c r="M83" t="str">
         <f t="shared" si="79"/>
-        <v>{"t":"i","i":88,"c":4,"tr":0}</v>
+        <v>{"t":"i","i":88,"c":2,"tr":0}</v>
       </c>
       <c r="R83" t="str">
         <f>VLOOKUP(G83,映射表!A:B,2,FALSE)</f>
